--- a/medicine/Handicap/Henri-Marie_Guilluy/Henri-Marie_Guilluy.xlsx
+++ b/medicine/Handicap/Henri-Marie_Guilluy/Henri-Marie_Guilluy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Henri-Marie Guilluy (en religion, né Henri Charles Joseph le 5 décembre 1911 à Ruitz[1],[2],[3] et mort le 19 octobre 2008 à Amiens[4], est un moine et prêtre catholique français, qui a fondé en 1966 la Congrégation Notre-Dame d'Espérance.
+Henri-Marie Guilluy (en religion, né Henri Charles Joseph le 5 décembre 1911 à Ruitz et mort le 19 octobre 2008 à Amiens, est un moine et prêtre catholique français, qui a fondé en 1966 la Congrégation Notre-Dame d'Espérance.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>résumé de la vie du père Henri-Marie Guilluy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Religieux au sein de l'abbaye Notre-Dame de Wisques, il fonde en 1966 le prieuré Notre-Dame d'Espérance de Croixrault dans le département de la Somme qui a pour mission de permettre à des hommes de faible santé de partager la vie monastique avec des hommes de santé normale et de devenir ainsi des moines à part entière en suivant la règle de saint Benoît.
 Le père Guilluy a fondé ensuite la Congrégation Notre-Dame d'Espérance qui rassemble actuellement huit monastères en France qui poursuivent le même objectif.
